--- a/spreadsheet/aks_checklist.ko.xlsx
+++ b/spreadsheet/aks_checklist.ko.xlsx
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -4725,1750 +4725,5094 @@
       <c r="P86" s="26" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1" s="13">
-      <c r="A87" s="22" t="n"/>
-      <c r="B87" s="22" t="n"/>
-      <c r="C87" s="22" t="n"/>
+      <c r="A87" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B87" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C87" s="22" t="inlineStr">
+        <is>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+        </is>
+      </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
-      <c r="L87" s="26" t="n"/>
+      <c r="L87" s="26" t="inlineStr">
+        <is>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+        </is>
+      </c>
       <c r="M87" s="26" t="n"/>
       <c r="N87" s="26" t="n"/>
       <c r="O87" s="26" t="n"/>
       <c r="P87" s="26" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1" s="13">
-      <c r="A88" s="22" t="n"/>
-      <c r="B88" s="22" t="n"/>
-      <c r="C88" s="22" t="n"/>
+      <c r="A88" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B88" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C88" s="22" t="inlineStr">
+        <is>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+        </is>
+      </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
-      <c r="L88" s="26" t="n"/>
+      <c r="L88" s="26" t="inlineStr">
+        <is>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+        </is>
+      </c>
       <c r="M88" s="26" t="n"/>
       <c r="N88" s="26" t="n"/>
       <c r="O88" s="26" t="n"/>
       <c r="P88" s="26" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1" s="13">
-      <c r="A89" s="22" t="n"/>
-      <c r="B89" s="22" t="n"/>
-      <c r="C89" s="22" t="n"/>
+      <c r="A89" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B89" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C89" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+        </is>
+      </c>
       <c r="D89" s="22" t="n"/>
-      <c r="E89" s="22" t="n"/>
+      <c r="E89" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
-      <c r="L89" s="26" t="n"/>
+      <c r="L89" s="26" t="inlineStr">
+        <is>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+        </is>
+      </c>
       <c r="M89" s="26" t="n"/>
       <c r="N89" s="26" t="n"/>
       <c r="O89" s="26" t="n"/>
       <c r="P89" s="26" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1" s="13">
-      <c r="A90" s="22" t="n"/>
-      <c r="B90" s="22" t="n"/>
-      <c r="C90" s="22" t="n"/>
+      <c r="A90" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B90" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C90" s="22" t="inlineStr">
+        <is>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+        </is>
+      </c>
       <c r="D90" s="22" t="n"/>
-      <c r="E90" s="22" t="n"/>
+      <c r="E90" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G90" s="22" t="n"/>
-      <c r="H90" s="16" t="n"/>
-      <c r="I90" s="16" t="n"/>
+      <c r="H90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
-      <c r="L90" s="26" t="n"/>
+      <c r="L90" s="26" t="inlineStr">
+        <is>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+        </is>
+      </c>
       <c r="M90" s="26" t="n"/>
       <c r="N90" s="26" t="n"/>
       <c r="O90" s="26" t="n"/>
       <c r="P90" s="26" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1" s="13">
-      <c r="A91" s="22" t="n"/>
-      <c r="B91" s="22" t="n"/>
-      <c r="C91" s="22" t="n"/>
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B91" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C91" s="22" t="inlineStr">
+        <is>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+        </is>
+      </c>
       <c r="D91" s="22" t="n"/>
-      <c r="E91" s="22" t="n"/>
+      <c r="E91" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G91" s="22" t="n"/>
-      <c r="H91" s="16" t="n"/>
-      <c r="I91" s="16" t="n"/>
+      <c r="H91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
-      <c r="L91" s="26" t="n"/>
+      <c r="L91" s="26" t="inlineStr">
+        <is>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+        </is>
+      </c>
       <c r="M91" s="26" t="n"/>
       <c r="N91" s="26" t="n"/>
       <c r="O91" s="26" t="n"/>
       <c r="P91" s="26" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1" s="13">
-      <c r="A92" s="22" t="n"/>
-      <c r="B92" s="22" t="n"/>
-      <c r="C92" s="22" t="n"/>
+      <c r="A92" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B92" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C92" s="22" t="inlineStr">
+        <is>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+        </is>
+      </c>
       <c r="D92" s="22" t="n"/>
-      <c r="E92" s="22" t="n"/>
+      <c r="E92" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G92" s="22" t="n"/>
-      <c r="H92" s="16" t="n"/>
-      <c r="I92" s="16" t="n"/>
+      <c r="H92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
-      <c r="L92" s="26" t="n"/>
+      <c r="L92" s="26" t="inlineStr">
+        <is>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+        </is>
+      </c>
       <c r="M92" s="26" t="n"/>
       <c r="N92" s="26" t="n"/>
       <c r="O92" s="26" t="n"/>
       <c r="P92" s="26" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1" s="13">
-      <c r="A93" s="22" t="n"/>
-      <c r="B93" s="22" t="n"/>
-      <c r="C93" s="22" t="n"/>
+      <c r="A93" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B93" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C93" s="22" t="inlineStr">
+        <is>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+        </is>
+      </c>
       <c r="D93" s="22" t="n"/>
-      <c r="E93" s="22" t="n"/>
+      <c r="E93" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="22" t="n"/>
-      <c r="H93" s="16" t="n"/>
-      <c r="I93" s="16" t="n"/>
+      <c r="H93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
-      <c r="L93" s="26" t="n"/>
+      <c r="L93" s="26" t="inlineStr">
+        <is>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+        </is>
+      </c>
       <c r="M93" s="26" t="n"/>
       <c r="N93" s="26" t="n"/>
       <c r="O93" s="26" t="n"/>
       <c r="P93" s="26" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1" s="13">
-      <c r="A94" s="22" t="n"/>
-      <c r="B94" s="22" t="n"/>
-      <c r="C94" s="22" t="n"/>
+      <c r="A94" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B94" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C94" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+        </is>
+      </c>
       <c r="D94" s="22" t="n"/>
-      <c r="E94" s="22" t="n"/>
+      <c r="E94" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="22" t="n"/>
-      <c r="H94" s="16" t="n"/>
-      <c r="I94" s="16" t="n"/>
+      <c r="H94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
-      <c r="L94" s="26" t="n"/>
+      <c r="L94" s="26" t="inlineStr">
+        <is>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+        </is>
+      </c>
       <c r="M94" s="26" t="n"/>
       <c r="N94" s="26" t="n"/>
       <c r="O94" s="26" t="n"/>
       <c r="P94" s="26" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1" s="13">
-      <c r="A95" s="22" t="n"/>
-      <c r="B95" s="22" t="n"/>
-      <c r="C95" s="22" t="n"/>
+      <c r="A95" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B95" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C95" s="22" t="inlineStr">
+        <is>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D95" s="22" t="n"/>
-      <c r="E95" s="22" t="n"/>
+      <c r="E95" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="22" t="n"/>
-      <c r="H95" s="16" t="n"/>
-      <c r="I95" s="16" t="n"/>
+      <c r="H95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
-      <c r="L95" s="26" t="n"/>
+      <c r="L95" s="26" t="inlineStr">
+        <is>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+        </is>
+      </c>
       <c r="M95" s="26" t="n"/>
       <c r="N95" s="26" t="n"/>
       <c r="O95" s="26" t="n"/>
       <c r="P95" s="26" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1" s="13">
-      <c r="A96" s="22" t="n"/>
-      <c r="B96" s="22" t="n"/>
-      <c r="C96" s="22" t="n"/>
+      <c r="A96" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B96" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C96" s="22" t="inlineStr">
+        <is>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+        </is>
+      </c>
       <c r="D96" s="22" t="n"/>
-      <c r="E96" s="22" t="n"/>
+      <c r="E96" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="22" t="n"/>
-      <c r="H96" s="16" t="n"/>
-      <c r="I96" s="16" t="n"/>
+      <c r="H96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
-      <c r="L96" s="26" t="n"/>
+      <c r="L96" s="26" t="inlineStr">
+        <is>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+        </is>
+      </c>
       <c r="M96" s="26" t="n"/>
       <c r="N96" s="26" t="n"/>
       <c r="O96" s="26" t="n"/>
       <c r="P96" s="26" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1" s="13">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="22" t="n"/>
-      <c r="C97" s="22" t="n"/>
+      <c r="A97" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B97" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C97" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+        </is>
+      </c>
       <c r="D97" s="22" t="n"/>
-      <c r="E97" s="22" t="n"/>
+      <c r="E97" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="22" t="n"/>
-      <c r="H97" s="16" t="n"/>
-      <c r="I97" s="16" t="n"/>
+      <c r="H97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
-      <c r="L97" s="26" t="n"/>
+      <c r="L97" s="26" t="inlineStr">
+        <is>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+        </is>
+      </c>
       <c r="M97" s="26" t="n"/>
       <c r="N97" s="26" t="n"/>
       <c r="O97" s="26" t="n"/>
       <c r="P97" s="26" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1" s="13">
-      <c r="A98" s="22" t="n"/>
-      <c r="B98" s="22" t="n"/>
-      <c r="C98" s="22" t="n"/>
+      <c r="A98" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B98" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C98" s="22" t="inlineStr">
+        <is>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+        </is>
+      </c>
       <c r="D98" s="22" t="n"/>
-      <c r="E98" s="22" t="n"/>
+      <c r="E98" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="22" t="n"/>
-      <c r="H98" s="16" t="n"/>
-      <c r="I98" s="16" t="n"/>
+      <c r="H98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
-      <c r="L98" s="26" t="n"/>
+      <c r="L98" s="26" t="inlineStr">
+        <is>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+        </is>
+      </c>
       <c r="M98" s="26" t="n"/>
       <c r="N98" s="26" t="n"/>
       <c r="O98" s="26" t="n"/>
       <c r="P98" s="26" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1" s="13">
-      <c r="A99" s="22" t="n"/>
-      <c r="B99" s="22" t="n"/>
-      <c r="C99" s="22" t="n"/>
+      <c r="A99" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B99" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C99" s="22" t="inlineStr">
+        <is>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+        </is>
+      </c>
       <c r="D99" s="22" t="n"/>
-      <c r="E99" s="22" t="n"/>
+      <c r="E99" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="22" t="n"/>
-      <c r="H99" s="16" t="n"/>
-      <c r="I99" s="16" t="n"/>
+      <c r="H99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
-      <c r="L99" s="26" t="n"/>
+      <c r="L99" s="26" t="inlineStr">
+        <is>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+        </is>
+      </c>
       <c r="M99" s="26" t="n"/>
       <c r="N99" s="26" t="n"/>
       <c r="O99" s="26" t="n"/>
       <c r="P99" s="26" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1" s="13">
-      <c r="A100" s="22" t="n"/>
-      <c r="B100" s="22" t="n"/>
-      <c r="C100" s="22" t="n"/>
+      <c r="A100" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B100" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C100" s="22" t="inlineStr">
+        <is>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+        </is>
+      </c>
       <c r="D100" s="22" t="n"/>
-      <c r="E100" s="22" t="n"/>
+      <c r="E100" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="22" t="n"/>
-      <c r="H100" s="16" t="n"/>
-      <c r="I100" s="16" t="n"/>
+      <c r="H100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
-      <c r="L100" s="26" t="n"/>
+      <c r="L100" s="26" t="inlineStr">
+        <is>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+        </is>
+      </c>
       <c r="M100" s="26" t="n"/>
       <c r="N100" s="26" t="n"/>
       <c r="O100" s="26" t="n"/>
       <c r="P100" s="26" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1" s="13">
-      <c r="A101" s="22" t="n"/>
-      <c r="B101" s="22" t="n"/>
-      <c r="C101" s="22" t="n"/>
+      <c r="A101" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B101" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C101" s="22" t="inlineStr">
+        <is>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
       <c r="D101" s="22" t="n"/>
-      <c r="E101" s="22" t="n"/>
+      <c r="E101" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="22" t="n"/>
-      <c r="H101" s="16" t="n"/>
-      <c r="I101" s="16" t="n"/>
+      <c r="H101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
-      <c r="L101" s="26" t="n"/>
+      <c r="L101" s="26" t="inlineStr">
+        <is>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+        </is>
+      </c>
       <c r="M101" s="26" t="n"/>
       <c r="N101" s="26" t="n"/>
       <c r="O101" s="26" t="n"/>
       <c r="P101" s="26" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1" s="13">
-      <c r="A102" s="22" t="n"/>
-      <c r="B102" s="22" t="n"/>
-      <c r="C102" s="22" t="n"/>
+      <c r="A102" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B102" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C102" s="22" t="inlineStr">
+        <is>
+          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+        </is>
+      </c>
       <c r="D102" s="22" t="n"/>
-      <c r="E102" s="22" t="n"/>
+      <c r="E102" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="22" t="n"/>
-      <c r="H102" s="16" t="n"/>
-      <c r="I102" s="16" t="n"/>
+      <c r="H102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
-      <c r="L102" s="26" t="n"/>
+      <c r="L102" s="26" t="inlineStr">
+        <is>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+        </is>
+      </c>
       <c r="M102" s="26" t="n"/>
       <c r="N102" s="26" t="n"/>
       <c r="O102" s="26" t="n"/>
       <c r="P102" s="26" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1" s="13">
-      <c r="A103" s="22" t="n"/>
-      <c r="B103" s="22" t="n"/>
-      <c r="C103" s="22" t="n"/>
+      <c r="A103" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B103" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C103" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+        </is>
+      </c>
       <c r="D103" s="22" t="n"/>
-      <c r="E103" s="22" t="n"/>
+      <c r="E103" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="22" t="n"/>
-      <c r="H103" s="16" t="n"/>
-      <c r="I103" s="16" t="n"/>
+      <c r="H103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
-      <c r="L103" s="26" t="n"/>
+      <c r="L103" s="26" t="inlineStr">
+        <is>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+        </is>
+      </c>
       <c r="M103" s="26" t="n"/>
       <c r="N103" s="26" t="n"/>
       <c r="O103" s="26" t="n"/>
       <c r="P103" s="26" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1" s="13">
-      <c r="A104" s="22" t="n"/>
-      <c r="B104" s="22" t="n"/>
-      <c r="C104" s="22" t="n"/>
+      <c r="A104" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B104" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C104" s="22" t="inlineStr">
+        <is>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+        </is>
+      </c>
       <c r="D104" s="22" t="n"/>
-      <c r="E104" s="22" t="n"/>
+      <c r="E104" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="22" t="n"/>
-      <c r="H104" s="16" t="n"/>
-      <c r="I104" s="16" t="n"/>
+      <c r="H104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
-      <c r="L104" s="26" t="n"/>
+      <c r="L104" s="26" t="inlineStr">
+        <is>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+        </is>
+      </c>
       <c r="M104" s="26" t="n"/>
       <c r="N104" s="26" t="n"/>
       <c r="O104" s="26" t="n"/>
       <c r="P104" s="26" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" s="13">
-      <c r="A105" s="22" t="n"/>
-      <c r="B105" s="22" t="n"/>
-      <c r="C105" s="22" t="n"/>
+      <c r="A105" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B105" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C105" s="22" t="inlineStr">
+        <is>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+        </is>
+      </c>
       <c r="D105" s="22" t="n"/>
-      <c r="E105" s="22" t="n"/>
+      <c r="E105" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="22" t="n"/>
-      <c r="H105" s="16" t="n"/>
-      <c r="I105" s="16" t="n"/>
+      <c r="H105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
-      <c r="L105" s="26" t="n"/>
+      <c r="L105" s="26" t="inlineStr">
+        <is>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+        </is>
+      </c>
       <c r="M105" s="26" t="n"/>
       <c r="N105" s="26" t="n"/>
       <c r="O105" s="26" t="n"/>
       <c r="P105" s="26" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1" s="13">
-      <c r="A106" s="22" t="n"/>
-      <c r="B106" s="22" t="n"/>
-      <c r="C106" s="22" t="n"/>
+      <c r="A106" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B106" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C106" s="22" t="inlineStr">
+        <is>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+        </is>
+      </c>
       <c r="D106" s="22" t="n"/>
-      <c r="E106" s="22" t="n"/>
+      <c r="E106" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="22" t="n"/>
-      <c r="H106" s="16" t="n"/>
-      <c r="I106" s="16" t="n"/>
+      <c r="H106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
-      <c r="L106" s="26" t="n"/>
+      <c r="L106" s="26" t="inlineStr">
+        <is>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+        </is>
+      </c>
       <c r="M106" s="26" t="n"/>
       <c r="N106" s="26" t="n"/>
       <c r="O106" s="26" t="n"/>
       <c r="P106" s="26" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1" s="13">
-      <c r="A107" s="22" t="n"/>
-      <c r="B107" s="22" t="n"/>
-      <c r="C107" s="22" t="n"/>
+      <c r="A107" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B107" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C107" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+        </is>
+      </c>
       <c r="D107" s="22" t="n"/>
-      <c r="E107" s="22" t="n"/>
+      <c r="E107" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="22" t="n"/>
-      <c r="H107" s="16" t="n"/>
-      <c r="I107" s="16" t="n"/>
+      <c r="H107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
-      <c r="L107" s="26" t="n"/>
+      <c r="L107" s="26" t="inlineStr">
+        <is>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+        </is>
+      </c>
       <c r="M107" s="26" t="n"/>
       <c r="N107" s="26" t="n"/>
       <c r="O107" s="26" t="n"/>
       <c r="P107" s="26" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1" s="13">
-      <c r="A108" s="22" t="n"/>
-      <c r="B108" s="22" t="n"/>
-      <c r="C108" s="22" t="n"/>
+      <c r="A108" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B108" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C108" s="22" t="inlineStr">
+        <is>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+        </is>
+      </c>
       <c r="D108" s="22" t="n"/>
-      <c r="E108" s="22" t="n"/>
+      <c r="E108" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G108" s="22" t="n"/>
-      <c r="H108" s="16" t="n"/>
-      <c r="I108" s="16" t="n"/>
+      <c r="H108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
-      <c r="L108" s="26" t="n"/>
+      <c r="L108" s="26" t="inlineStr">
+        <is>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+        </is>
+      </c>
       <c r="M108" s="26" t="n"/>
       <c r="N108" s="26" t="n"/>
       <c r="O108" s="26" t="n"/>
       <c r="P108" s="26" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1" s="13">
-      <c r="A109" s="22" t="n"/>
-      <c r="B109" s="22" t="n"/>
-      <c r="C109" s="22" t="n"/>
+      <c r="A109" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B109" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C109" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+        </is>
+      </c>
       <c r="D109" s="22" t="n"/>
-      <c r="E109" s="22" t="n"/>
+      <c r="E109" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G109" s="22" t="n"/>
-      <c r="H109" s="16" t="n"/>
-      <c r="I109" s="16" t="n"/>
+      <c r="H109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
-      <c r="L109" s="26" t="n"/>
+      <c r="L109" s="26" t="inlineStr">
+        <is>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+        </is>
+      </c>
       <c r="M109" s="26" t="n"/>
       <c r="N109" s="26" t="n"/>
       <c r="O109" s="26" t="n"/>
       <c r="P109" s="26" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1" s="13">
-      <c r="A110" s="22" t="n"/>
-      <c r="B110" s="22" t="n"/>
-      <c r="C110" s="22" t="n"/>
+      <c r="A110" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B110" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C110" s="22" t="inlineStr">
+        <is>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+        </is>
+      </c>
       <c r="D110" s="22" t="n"/>
-      <c r="E110" s="22" t="n"/>
+      <c r="E110" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G110" s="22" t="n"/>
-      <c r="H110" s="16" t="n"/>
-      <c r="I110" s="16" t="n"/>
+      <c r="H110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
-      <c r="L110" s="26" t="n"/>
+      <c r="L110" s="26" t="inlineStr">
+        <is>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+        </is>
+      </c>
       <c r="M110" s="26" t="n"/>
       <c r="N110" s="26" t="n"/>
       <c r="O110" s="26" t="n"/>
       <c r="P110" s="26" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1" s="13">
-      <c r="A111" s="22" t="n"/>
-      <c r="B111" s="22" t="n"/>
-      <c r="C111" s="22" t="n"/>
+      <c r="A111" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B111" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C111" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+        </is>
+      </c>
       <c r="D111" s="22" t="n"/>
-      <c r="E111" s="22" t="n"/>
+      <c r="E111" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G111" s="22" t="n"/>
-      <c r="H111" s="16" t="n"/>
+      <c r="H111" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
-      <c r="L111" s="26" t="n"/>
+      <c r="L111" s="26" t="inlineStr">
+        <is>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+        </is>
+      </c>
       <c r="M111" s="26" t="n"/>
       <c r="N111" s="26" t="n"/>
       <c r="O111" s="26" t="n"/>
       <c r="P111" s="26" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1" s="13">
-      <c r="A112" s="22" t="n"/>
-      <c r="B112" s="22" t="n"/>
-      <c r="C112" s="22" t="n"/>
+      <c r="A112" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B112" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C112" s="22" t="inlineStr">
+        <is>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+        </is>
+      </c>
       <c r="D112" s="22" t="n"/>
-      <c r="E112" s="22" t="n"/>
+      <c r="E112" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G112" s="22" t="n"/>
-      <c r="H112" s="16" t="n"/>
-      <c r="I112" s="16" t="n"/>
+      <c r="H112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
-      <c r="L112" s="26" t="n"/>
+      <c r="L112" s="26" t="inlineStr">
+        <is>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+        </is>
+      </c>
       <c r="M112" s="26" t="n"/>
       <c r="N112" s="26" t="n"/>
       <c r="O112" s="26" t="n"/>
       <c r="P112" s="26" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1" s="13">
-      <c r="A113" s="22" t="n"/>
-      <c r="B113" s="22" t="n"/>
-      <c r="C113" s="22" t="n"/>
+      <c r="A113" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B113" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C113" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+        </is>
+      </c>
       <c r="D113" s="22" t="n"/>
-      <c r="E113" s="22" t="n"/>
+      <c r="E113" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G113" s="22" t="n"/>
-      <c r="H113" s="16" t="n"/>
-      <c r="I113" s="16" t="n"/>
+      <c r="H113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
-      <c r="L113" s="26" t="n"/>
+      <c r="L113" s="26" t="inlineStr">
+        <is>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+        </is>
+      </c>
       <c r="M113" s="26" t="n"/>
       <c r="N113" s="26" t="n"/>
       <c r="O113" s="26" t="n"/>
       <c r="P113" s="26" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1" s="13">
-      <c r="A114" s="22" t="n"/>
-      <c r="B114" s="22" t="n"/>
-      <c r="C114" s="22" t="n"/>
+      <c r="A114" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B114" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C114" s="22" t="inlineStr">
+        <is>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+        </is>
+      </c>
       <c r="D114" s="22" t="n"/>
-      <c r="E114" s="22" t="n"/>
+      <c r="E114" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G114" s="22" t="n"/>
-      <c r="H114" s="16" t="n"/>
-      <c r="I114" s="16" t="n"/>
+      <c r="H114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
-      <c r="L114" s="26" t="n"/>
+      <c r="L114" s="26" t="inlineStr">
+        <is>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+        </is>
+      </c>
       <c r="M114" s="26" t="n"/>
       <c r="N114" s="26" t="n"/>
       <c r="O114" s="26" t="n"/>
       <c r="P114" s="26" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1" s="13">
-      <c r="A115" s="22" t="n"/>
-      <c r="B115" s="22" t="n"/>
-      <c r="C115" s="22" t="n"/>
+      <c r="A115" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B115" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C115" s="22" t="inlineStr">
+        <is>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+        </is>
+      </c>
       <c r="D115" s="22" t="n"/>
-      <c r="E115" s="22" t="n"/>
+      <c r="E115" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G115" s="22" t="n"/>
-      <c r="H115" s="16" t="n"/>
+      <c r="H115" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
-      <c r="L115" s="26" t="n"/>
+      <c r="L115" s="26" t="inlineStr">
+        <is>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+        </is>
+      </c>
       <c r="M115" s="26" t="n"/>
       <c r="N115" s="26" t="n"/>
       <c r="O115" s="26" t="n"/>
       <c r="P115" s="26" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1" s="13">
-      <c r="A116" s="22" t="n"/>
-      <c r="B116" s="22" t="n"/>
-      <c r="C116" s="22" t="n"/>
+      <c r="A116" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B116" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C116" s="22" t="inlineStr">
+        <is>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+        </is>
+      </c>
       <c r="D116" s="22" t="n"/>
-      <c r="E116" s="22" t="n"/>
+      <c r="E116" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G116" s="22" t="n"/>
-      <c r="H116" s="16" t="n"/>
+      <c r="H116" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
-      <c r="L116" s="26" t="n"/>
+      <c r="L116" s="26" t="inlineStr">
+        <is>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+        </is>
+      </c>
       <c r="M116" s="26" t="n"/>
       <c r="N116" s="26" t="n"/>
       <c r="O116" s="26" t="n"/>
       <c r="P116" s="26" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1" s="13">
-      <c r="A117" s="22" t="n"/>
-      <c r="B117" s="22" t="n"/>
-      <c r="C117" s="22" t="n"/>
+      <c r="A117" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B117" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C117" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+        </is>
+      </c>
       <c r="D117" s="22" t="n"/>
-      <c r="E117" s="22" t="n"/>
+      <c r="E117" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G117" s="22" t="n"/>
-      <c r="H117" s="16" t="n"/>
+      <c r="H117" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
-      <c r="L117" s="26" t="n"/>
+      <c r="L117" s="26" t="inlineStr">
+        <is>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+        </is>
+      </c>
       <c r="M117" s="26" t="n"/>
       <c r="N117" s="26" t="n"/>
       <c r="O117" s="26" t="n"/>
       <c r="P117" s="26" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1" s="13">
-      <c r="A118" s="22" t="n"/>
-      <c r="B118" s="22" t="n"/>
-      <c r="C118" s="22" t="n"/>
+      <c r="A118" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B118" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C118" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+        </is>
+      </c>
       <c r="D118" s="22" t="n"/>
-      <c r="E118" s="22" t="n"/>
+      <c r="E118" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G118" s="22" t="n"/>
-      <c r="H118" s="16" t="n"/>
-      <c r="I118" s="16" t="n"/>
+      <c r="H118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
-      <c r="L118" s="26" t="n"/>
+      <c r="L118" s="26" t="inlineStr">
+        <is>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+        </is>
+      </c>
       <c r="M118" s="26" t="n"/>
       <c r="N118" s="26" t="n"/>
       <c r="O118" s="26" t="n"/>
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="n"/>
       <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -8166,7 +11510,31 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="9">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/aks_checklist.ko.xlsx
+++ b/spreadsheet/aks_checklist.ko.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure AKS 검토</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>SLA, RTO(복구 시간 목표) 및 RPO(복구 지점 목표)와 같은 비기능 요구 사항을 정의합니다.</t>
+          <t>SLA, RTO(복구 시간 목표) 및 RPO(복구 지점 목표)와 같은 비기능적 요구 사항을 정의합니다.</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>BC14AEA6-E65D-48D9-A3AD-C218E6436B06</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>DR 테스트를 정기적으로 예약하고 수행합니다.</t>
+          <t>정기적으로 DR 테스트 예약 및 수행</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>36CB45E5-7960-4332-9BDF-8CC23318DA61</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 글로벌 부하 분산 장치로 사용</t>
+          <t>Azure 트래픽 관리자 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 전역 부하 분산 장치로 사용</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>170265F4-BB46-4A39-9AF7-F317284797B1</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>71D41E36-10CC-457B-9A4B-1410D4395898</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>C1288B3C-6A57-4CFC-9444-51E1A3D3453A</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>3C763963-7A55-42D5-A15E-401955387E5C</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>서비스 주체 대신 관리되는 ID 사용</t>
+          <t>서비스 주체 대신 관리 ID 사용</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>ED127DD1-42B0-46B2-8C69-99A646F3389A</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>7E42C78E-78C0-46A6-8A21-94956E698dc4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>관리자 kubeconfig에 대한 액세스 제한 (자격 증명 얻기 --admin)</t>
+          <t>관리자 kubeconfig에 대한 액세스 제한 (자격 증명 가져 오기 --admin)</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>A2FE27B2-E287-401A-8352-BEEDF79B488D</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>EEC4962C-C3BD-421B-B77F-26E5E6B3BEC3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스에서 RBAC 권한을 제한하기 위해 네임스페이스 사용</t>
+          <t>네임스페이스를 사용하여 쿠버네티스에서 RBAC 권한 제한</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>D4F3537C-1346-4DC5-9027-A71FFE1BD05D</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>워크로드 ID에 포드 ID 사용(오늘 미리 보기의 추가 기능 v2)</t>
+          <t>POD ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그인 선택(Azure CNI 권장)</t>
+          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 최대 포드 수를 고려하여 서브넷 크기를 적절하게 조정합니다.</t>
+          <t>AKS 로컬 계정 사용 안 함</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 최대 포드/노드를 확인합니다(기본값 30).</t>
+          <t>필요한 경우 Just-In-Time 클러스터 액세스 구성</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-베이드-43aa-b1e8-c38ec9366673</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,24 +1831,20 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>프라이빗-IP LoadBalancer 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷이 아님)을 사용합니다.</t>
-        </is>
-      </c>
-      <c r="D24" s="22" t="inlineStr">
-        <is>
-          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 포드에 대한 네트워크 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
-        </is>
-      </c>
+          <t>AKS에 대한 AAD 조건부 액세스가 필요한 경우 구성</t>
+        </is>
+      </c>
+      <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다 (클러스터 확장 성이 제한됨).</t>
+          <t xml:space="preserve">윈도우 AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,23 +1923,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>보안 요구 사항이 요구하는 경우 AzFW/NVA로 송신 트래픽을 필터링합니다.</t>
+          <t>더 세밀하게 제어하려면 관리되는 Kubelet ID를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1954,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1962,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1978,18 +1974,18 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>공용 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다.</t>
+          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인을 선택합니다(Azure CNI 권장).</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2000,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>A0F61565-9DE5-458F-A372-49C831112DBD</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2023,18 +2019,18 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>수신 컨트롤러를 사용하여 웹 기반 앱을 LoadBalancer 유형 서비스에 노출하는 대신 노출합니다.</t>
+          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다.</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2045,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7FAF12E7-0943-4F63-8472-2DA29C2B1CD6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2068,18 +2064,18 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>모범 사례</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마십시오.</t>
+          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2090,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
+          <t>22F54B29-BADE-43AA-B1E8-C38EC9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2113,18 +2109,22 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>개인 끝점(기본 설정) 또는 가상 네트워크 서비스 끝점을 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>개인 IP 부하 분산 장치 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷 아님)을 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 네트워크 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2135,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>13C00567-4B1E-4945-A459-C373E7ED6162</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>요구 사항이 요구하는 경우 개인 클러스터 사용</t>
+          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성 제한).</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2180,14 +2180,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>43F63047-22D9-429C-8B1C-D622F54B29BA</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책 옵션 사용(Calico/Azure)</t>
+          <t>보안 요구 사항에 따라 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2225,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2254,13 +2254,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
+          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2295,18 +2295,18 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>웹 워크로드(UI 또는 API)에 WAF 사용</t>
+          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스로 노출하는 대신 웹 기반 앱을 노출합니다.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2317,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2341,18 +2341,18 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>AKS 가상 네트워크에서 DDoS 표준 사용</t>
+          <t>Azue NAT 게이트웨이를 아웃바운드 유형으로 사용하여 송신 트래픽 크기 조정</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2387,18 +2387,18 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>모범 사례</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>AKS 응용 프로그램 라우팅 추가 기능을 사용하지 마십시오.</t>
+          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2433,18 +2433,18 @@
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>모범 사례</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>표준 ALB 사용 (기본 ALB와 반대)</t>
+          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요.</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2455,7 +2455,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>중심업무수행원의 8AC2A-AEBC-4A2A-94다-1DBF3DC99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>있다</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>하이브리드 연결이 필요한 경우 더 나은 가용성을 위해 2xER 또는 ER+VPN을 사용하십시오.</t>
+          <t>프라이빗 엔드포인트(기본 설정) 또는 가상 네트워크 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2501,7 +2501,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>C3C39C98-6BB2-4C12-859A-114B5E3DF584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시 사용을 고려하십시오.</t>
+          <t>요구 사항에서 요구하는 경우 프라이빗 클러스터 사용</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2547,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2566,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure Key Vault에 비밀을 저장합니다.</t>
+          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 옥양목 네트워크 정책을 사용할 수 있습니다. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2593,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,17 +2612,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>클러스터에 대한 사용자 서비스 주체인 경우 자격 증명을 주기적으로(예: 분기별) 새로 고칩니다.</t>
+          <t>쿠버네티스 네트워크 정책 옵션 사용(Calico/Azure)</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2639,7 +2639,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2647,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>58D7C892-DDB1-407D-9769-AE669CA48E4A</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,23 +2658,23 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스에 대한 Azure 정책을 사용하여 클러스터 규정 준수 보장</t>
+          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2685,7 +2685,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2693,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>85E2223E-CE8B-4B12-907C-A5F16F158E3E</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2704,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>사용자/시스템 노드 풀을 사용하여 제어 평면에서 응용 프로그램 분리</t>
+          <t>웹 워크로드(UI 또는 API)에 WAF 사용</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2731,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>A3A92C2D-E7E2-4165-A3A8-7AF4A7A1F893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,23 +2750,23 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>시스템 노드 풀에 테인트를 추가하여 전용으로 만드십시오.</t>
+          <t>AKS 가상 네트워크에서 DDoS 표준 사용</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2777,7 +2777,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2785,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2796,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>이미지에 개인 레지스트리(예: ACR) 사용</t>
+          <t>필요한 경우 회사 HTTP 프록시 추가</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2823,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2841,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>이미지에 취약성이 있는지 검사합니다.</t>
+          <t>AKS 애플리케이션 라우팅 추가 기능을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2876,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,17 +2887,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure 보안 센터를 사용하여 보안 태세 취약성 검색</t>
+          <t>Windows 워크로드의 경우 가속화된 네트워킹 사용</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2914,7 +2914,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2922,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,17 +2933,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
+          <t>표준 ALB 사용(기본 ALB와 반대)</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2960,14 +2960,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>BA7DA7BE-9952-4914-A384-5D997CB39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,23 +2978,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>있다</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>kubecost와 같은 외부 응용 프로그램을 사용하여 다른 사용자에게 custs를 할당하십시오.</t>
+          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3005,14 +3005,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3023,23 +3023,23 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>임시 OS 디스크 사용</t>
+          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시 사용 고려</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3050,7 +3050,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B51" s="22" t="inlineStr">
+        <is>
           <t>작업</t>
         </is>
       </c>
-      <c r="B51" s="22" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>사용 후 삭제되지 않은 디스크의 경우 여러 포드를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 거대한 로그를 생성하므로 많은 포드/노드를 실행할 때 노드에 대해 높은 IOPS 및 더 큰 OS 디스크를 사용합니다.</t>
+          <t>필요한 경우 자신의 CNI 플러그인을 추가하십시오.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3096,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3115,23 +3115,23 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B52" s="22" t="inlineStr">
+        <is>
           <t>작업</t>
         </is>
       </c>
-      <c r="B52" s="22" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>클러스터에서 상태를 유지하지 말고 데이터를 외부에 저장하십시오 (AzStorage, AzSQL, 코스모스 등)</t>
+          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3142,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3161,17 +3161,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles 프리미엄 및/또는 ANF를 고려하십시오.</t>
+          <t>Azure CNI를 사용하는 경우 노드 풀에 대해 다른 서브넷을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3188,14 +3188,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3206,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Azure 디스크 및 AZ를 사용하는 경우 볼륨 바인딩 모드:올바른 영역에서 저장소를 프로비전하기 위해 WaitForFirstConsumer 또는 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 LRS 디스크를 사용하여 LRS 디스크의 영역 내에 노드 풀을 두는 것이 좋습니다.</t>
+          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure 키 자격 증명 모음에 비밀 저장</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3233,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3241,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>5E3DF584-ECCC-4D97-A3B6-BCDA3B50EB2E</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3252,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>클러스터에 대한 권장 사항에 대해서는 Azure Advisor를 정기적으로 확인합니다.</t>
+          <t>클러스터에 대한 사용자 서비스 주체인 경우 자격 증명을 주기적으로(예: 분기별) 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3279,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>B03DDA6D-58D7-4C89-8DDB-107D5769AE66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,7 +3297,7 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
@@ -3307,13 +3307,13 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>vscode+kubeadvisor와 같은 지능형 텍스트 편집기로 YAML 매니페스트를 개발하십시오.</t>
+          <t>쿠버네티스용 Azure 정책을 사용하여 클러스터 규정 준수 보장</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3324,14 +3324,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>9CA48E4A-85E2-4223-BCE8-BB12307CA5F1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3342,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>컨테이너 인사이트(또는 프로메테우스와 같은 다른 도구)를 사용하여 클러스터 메트릭을 모니터링합니다.</t>
+          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3369,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>6F158E3E-A3A9-42C2-BE7E-2165C3A87AF4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3387,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>컨테이너 인사이트(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
+          <t>시스템 노드 풀에 taint를 추가하여 전용으로 만들기</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3414,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>A7A1F893-9BDA-4477-98F2-4C116775C2EA</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3432,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>경고</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 컨테이너 인사이트 참조)</t>
+          <t>이미지에 ACR과 같은 개인 레지스트리 사용</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,7 +3477,7 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
@@ -3487,13 +3487,13 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스 버전을 주기적으로(예: 분기별로) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스를 보유하십시오.</t>
+          <t>이미지에서 취약성 검사</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>59BCE65D-E8A0-43F9-9879-468D66A786D6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,7 +3522,7 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
@@ -3532,13 +3532,13 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured 사용</t>
+          <t>Azure 보안 센터를 사용하여 보안 상태 취약성 검색</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,7 +3567,7 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
@@ -3577,13 +3577,13 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>클러스터 노드 이미지를 주기적으로 업그레이드하는 정기적인 프로세스가 있어야 합니다(예: 매주)</t>
+          <t>필요한 경우 FIPS 구성</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>여러 클러스터에 애플리케이션 또는 클러스터 구성을 배포하기 위해 gitops를 고려하십시오.</t>
+          <t>필요한 경우 키 관리 서비스 etcd 암호화 추가</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,17 +3658,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>시간에 민감하지 않은 워크로드에 대해 스팟 노드 풀을 고려하십시오.</t>
+          <t>필요한 경우 AKS에 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>빠른 버스팅을 위해 AKS 가상 노드를 고려하십시오.</t>
+          <t>컨테이너용 Defender 사용 고려</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,7 +3750,7 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>노드 RG(일명 'infra RG')의 운영자가 변경하지 않도록 자체 거버넌스 관행을 개발합니다.</t>
+          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>D167DD18-2B0A-4C24-8B99-9A646F8389A7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,17 +3795,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>사용자 지정 노드 RG(일명 'Infra RG') 이름 사용</t>
+          <t>kubecost와 같은 외부 응용 프로그램을 사용하여 다른 사용자에게 cust를 할당합니다.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>YAML 매니페스트에서 더 이상 사용되지 않는 쿠버네티스 API를 사용하지 마십시오.</t>
+          <t>필요한 경우 노드 풀 스냅샷 크기 조정</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,17 +3887,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>테인트 윈도우 노드</t>
+          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,23 +3933,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화 상태로 유지</t>
+          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>노드의 CPU 및 메모리 사용률 모니터링</t>
+          <t>개발/테스트 클러스터를 실행하는 경우 노드 풀 시작/중지 사용</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4030,18 +4030,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 사용된 포드 IP의 %를 모니터링합니다.</t>
+          <t>임시 OS 디스크 사용</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4076,22 +4076,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>노드의 OS 디스크 큐 깊이 모니터링</t>
-        </is>
-      </c>
-      <c r="D73" s="22" t="inlineStr">
-        <is>
-          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되면 예기치 않은 동작이 발생할 수 있으며, 일반적으로 노드가 NotReady로 선언되는 결과를 초래할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대용량 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 대해 높은 IOPS 및 더 큰 OS 디스크를 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4102,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4110,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4Bed32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4126,18 +4122,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>AzFW/NVA에서 송신 필터링을 사용하지 않는 경우 표준 ALB 할당 SNAT 포트를 모니터링합니다.</t>
+          <t>고성능 스토리지 옵션의 경우 AKS에서 울트라 디스크 사용</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4148,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4156,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4Bed32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4172,12 +4168,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>AKS 클러스터에 대한 리소스 상태 알림 구독</t>
+          <t>클러스터에 상태를 유지하지 말고 외부에 데이터를 저장합니다 (AzStorage, AzSQL, Cosmos 등).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4194,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4202,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>9F7547C1-747D-4C56-868A-714435BD19DD</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4218,22 +4214,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>마스터 로그(API 로그라고도 함)를 Azure Monitor 또는 기본 로그 관리 솔루션으로 보내기</t>
-        </is>
-      </c>
-      <c r="D76" s="22" t="inlineStr">
-        <is>
-          <t>클러스터 수준에서 진단 설정을 통해</t>
-        </is>
-      </c>
+          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles Premium 및/또는 ANF를 고려하십시오.</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4244,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4252,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>24429EB7-2281-4376-85CC-57B4A4B18142</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4268,12 +4260,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>클러스터 자동 크기 조정기 사용</t>
+          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 볼륨 바인딩 모드:WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4290,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4298,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>83958A8C-2689-4B32-AB57-CFC64546135A</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4314,18 +4306,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 수평 포드 자동 크기 조정기 사용</t>
+          <t>Azure 어드바이저에서 클러스터에 대한 권장 사항을 정기적으로 확인하세요.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4336,7 +4328,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4344,7 +4336,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>337453A3-CC63-4963-9A65-22AC19E80696</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4360,22 +4352,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려하십시오.</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="inlineStr">
-        <is>
-          <t>노드가 클수록 더 높은 성능과 임시 디스크 및 가속 네트워킹과 같은 기능을 제공하지만 폭발 반경이 증가하고 스케일링 세분성이 감소합니다.</t>
-        </is>
-      </c>
+          <t>vscode+kubeadvisor와 같은 지능형 텍스트 편집기로 YAML 매니페스트를 개발하세요.</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4386,7 +4374,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4394,7 +4382,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>5388E9DE-D167-4DD1-A2B0-AC241B999A64</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4410,18 +4398,18 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>포드 사양에서 요청 및 제한 구성</t>
+          <t>AKS 자동 인증서 회전 사용</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4432,7 +4420,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4440,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5388E9DE-D167-4DD1-A2B0-AC241B999A64</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4456,18 +4444,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>네임스페이스에 대한 리소스 할당량 적용</t>
+          <t>컨테이너 인사이트(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 메트릭 모니터링</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4478,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4486,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>6F8389A7-F82C-4B8E-A8C0-AA63A25A4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4502,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>구독에 노드 풀을 확장하기에 충분한 할당량이 있는지 확인</t>
+          <t>컨테이너 인사이트(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4524,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4532,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4543,23 +4531,23 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>코드로서의 인프라</t>
+          <t>경고</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기</t>
+          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 컨테이너 인사이트 참조)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4570,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4578,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>67F7A9ED-5B31-4F38-A3F3-9812B2463CFF</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4589,23 +4577,23 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>카나리아 또는 파란색/녹색 배포 사용</t>
+          <t>kubernetes 버전을 주기적으로(예: 분기별로) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4616,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4624,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>E189C599-DF0D-45A7-9DD4-CE32C1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4635,23 +4623,23 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용</t>
+          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured 사용</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4662,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4670,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>6F7C4C0D-4E51-4464-AD24-57ED67138B82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4681,23 +4669,23 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Dapr을 사용하여 마이크로 서비스 개발 용이성</t>
+          <t>클러스터 노드 이미지를 정기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있어야 합니다.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4708,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4716,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>139C9580-ADE3-426A-BA09-CF157D9F6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4727,46 +4715,42 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>응용 프로그램 또는 클러스터 구성을 여러 클러스터에 배포하기 위해 gitops 고려</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4777,46 +4761,42 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>프라이빗 클러스터에서 AKS 명령 호출 사용을 고려하세요.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4827,46 +4807,42 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>C5A5B252-1E44-4A59-A9D2-399C4D7B68D0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4877,46 +4853,42 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>C755562F-2B4E-4456-9B4D-874A748B662E</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4927,46 +4899,42 @@
     <row r="91" ht="16.5" customHeight="1" s="13">
       <c r="A91" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>계획된 이벤트의 경우 노드 자동 드레이닝 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>31d7aaab-7571-4449-AB80-53D89E89D17B</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4977,46 +4945,42 @@
     <row r="92" ht="16.5" customHeight="1" s="13">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경하지 않도록 자체 관리 관행을 개발합니다.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>31d7aaab-7571-4449-AB80-53D89E89D17B</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5027,46 +4991,42 @@
     <row r="93" ht="16.5" customHeight="1" s="13">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>사용자 지정 노드 RG(일명 '인프라 RG') 이름 사용</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I93" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="n"/>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5077,46 +5037,42 @@
     <row r="94" ht="16.5" customHeight="1" s="13">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>YAML 매니페스트에서 더 이상 사용되지 않는 쿠버네티스 API를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I94" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="n"/>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>B2463CFF-E189-4C59-ADF0-D5A73DD4CE32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5127,46 +5083,42 @@
     <row r="95" ht="16.5" customHeight="1" s="13">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>윈도우 노드 오염</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I95" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="n"/>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>C1881370-6F7C-44C0-B4E5-14648D2457ED</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5177,46 +5129,42 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="n"/>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5227,46 +5175,42 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>노드의 CPU 및 메모리 사용률 모니터링</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I97" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="n"/>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4621DD68-C5A5-4BE2-BDB1-1726769EF669</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5277,46 +5221,42 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Azure CNI를 사용하는 경우 노드당 사용된 Pod IP의 %를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I98" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="n"/>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5327,46 +5267,46 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
-        </is>
-      </c>
-      <c r="D99" s="22" t="n"/>
+          <t>노드의 OS 디스크 큐 깊이 모니터링</t>
+        </is>
+      </c>
+      <c r="D99" s="22" t="inlineStr">
+        <is>
+          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되면 예기치 않은 동작이 발생할 수 있으며 일반적으로 노드가 NotReady로 선언됩니다.</t>
+        </is>
+      </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I99" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="n"/>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5377,46 +5317,42 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>AzFW/NVA에서 송신 필터링을 사용하지 않는 경우 표준 ALB 할당 SNAT 포트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I100" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="n"/>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>BE209D39-FDA4-4777-A424-D116785C2FA5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5427,46 +5363,42 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>AKS 클러스터에 대한 리소스 상태 알림 구독</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
       <c r="E101" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I101" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="n"/>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>74C2EE76-569B-4A79-A57E-DEDF91B022C9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5477,46 +5409,46 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="n"/>
+          <t>마스터 로그(API 로그라고도 함)를 Azure 모니터 또는 기본 설정 로그 관리 솔루션으로 보냅니다.</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="inlineStr">
+        <is>
+          <t>클러스터 수준에서 진단 설정을 통해</t>
+        </is>
+      </c>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I102" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="n"/>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5527,46 +5459,42 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>클러스터 자동 크기 조정기 사용</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="n"/>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5577,46 +5505,42 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5627,46 +5551,42 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>필요한 경우 수평 포드 자동 크기 조정기 사용</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>FAA19BFE-9D55-4D04-A3C4-919CA1B2D121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5677,46 +5597,46 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="n"/>
+          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려하십시오.</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="inlineStr">
+        <is>
+          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
+        </is>
+      </c>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5727,46 +5647,46 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="n"/>
+          <t>확장성에 필요한 경우 5000개 이상의 노드를 추가하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="inlineStr">
+        <is>
+          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
+        </is>
+      </c>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5777,46 +5697,46 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
-        </is>
-      </c>
-      <c r="D108" s="22" t="n"/>
+          <t>AKS 자동화를 위한 이벤트 그리드 이벤트를 구독하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D108" s="22" t="inlineStr">
+        <is>
+          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
+        </is>
+      </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5827,46 +5747,46 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="n"/>
+          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="inlineStr">
+        <is>
+          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
+        </is>
+      </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5877,46 +5797,46 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="n"/>
+          <t>필요한 경우 AKS 노드에 대한 Azure 전용 호스트를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="inlineStr">
+        <is>
+          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
+        </is>
+      </c>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5927,46 +5847,41 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>포드 사양에서 요청 및 제한 구성</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>B54EB2EB-03DD-4AA3-9927-18E2EDB11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5977,46 +5892,42 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>네임스페이스에 대한 리소스 할당량 적용</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>769EF669-1A48-435A-A942-223ECE80B123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6027,46 +5938,42 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>구독에 노드 풀을 확장하기에 충분한 할당량이 있는지 확인</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6077,46 +5984,42 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>코드형 인프라</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6127,41 +6030,41 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>카나리아 또는 블루/그린 배포 사용</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6172,46 +6075,41 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>AKS Windows 워크로드에 필요한 경우 호스트 프로세스 컨테이너를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6222,46 +6120,41 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6272,46 +6165,42 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Dapr을 사용하여 마이크로 서비스 개발 용이</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://dapr.io/</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="n"/>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>26886D20-B66C-457B-A591-19BF8E8F5C58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11535,7 +11424,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11683,7 +11572,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>이 검사와 연관된 작업 항목이 있습니다.</t>
+          <t>이 검사와 연결된 작업 항목이 있습니다.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11720,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>이 검사가 확인되었으며 연관된 추가 작업 항목이 없습니다.</t>
+          <t>이 검사가 확인되었으며 연결된 추가 작업 항목이 없습니다.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11752,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항은 이해되었지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에서 필요하지 않음</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11784,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>현재 설계에는 적용되지 않음</t>
+          <t>현재 디자인에는 적용되지 않음</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/aks_checklist.ko.xlsx
+++ b/spreadsheet/aks_checklist.ko.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure AKS 검토</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>BC14AEA6-E65D-48D9-A3AD-C218E6436B06</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36CB45E5-7960-4332-9BDF-8CC23318DA61</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265F4-BB46-4A39-9AF7-F317284797B1</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71D41E36-10CC-457B-9A4B-1410D4395898</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>C1288B3C-6A57-4CFC-9444-51E1A3D3453A</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3C763963-7A55-42D5-A15E-401955387E5C</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ED127DD1-42B0-46B2-8C69-99A646F3389A</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7E42C78E-78C0-46A6-8A21-94956E698dc4</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>A2FE27B2-E287-401A-8352-BEEDF79B488D</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>EEC4962C-C3BD-421B-B77F-26E5E6B3BEC3</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>D4F3537C-1346-4DC5-9027-A71FFE1BD05D</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2003,7 +2003,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>A0F61565-9DE5-458F-A372-49C831112DBD</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2048,7 +2048,7 @@
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7FAF12E7-0943-4F63-8472-2DA29C2B1CD6</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2093,7 +2093,7 @@
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22F54B29-BADE-43AA-B1E8-C38EC9366673</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2142,7 +2142,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>13C00567-4B1E-4945-A459-C373E7ED6162</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2187,7 +2187,7 @@
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43F63047-22D9-429C-8B1C-D622F54B29BA</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>중심업무수행원의 8AC2A-AEBC-4A2A-94다-1DBF3DC99248</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>C3C39C98-6BB2-4C12-859A-114B5E3DF584</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2647,7 +2647,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>58D7C892-DDB1-407D-9769-AE669CA48E4A</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2693,7 +2693,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>85E2223E-CE8B-4B12-907C-A5F16F158E3E</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>A3A92C2D-E7E2-4165-A3A8-7AF4A7A1F893</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2967,7 +2967,7 @@
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>BA7DA7BE-9952-4914-A384-5D997CB39132</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>있다</t>
+          <t>하</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3195,7 +3195,7 @@
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3241,7 +3241,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>5E3DF584-ECCC-4D97-A3B6-BCDA3B50EB2E</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3286,7 +3286,7 @@
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>B03DDA6D-58D7-4C89-8DDB-107D5769AE66</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3331,7 +3331,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9CA48E4A-85E2-4223-BCE8-BB12307CA5F1</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3376,7 +3376,7 @@
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6F158E3E-A3A9-42C2-BE7E-2165C3A87AF4</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3421,7 +3421,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>A7A1F893-9BDA-4477-98F2-4C116775C2EA</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3511,7 +3511,7 @@
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59BCE65D-E8A0-43F9-9879-468D66A786D6</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3556,7 +3556,7 @@
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3601,7 +3601,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3784,7 +3784,7 @@
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>D167DD18-2B0A-4C24-8B99-9A646F8389A7</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4Bed32</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4Bed32</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4198,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9F7547C1-747D-4C56-868A-714435BD19DD</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4244,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>24429EB7-2281-4376-85CC-57B4A4B18142</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4290,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958A8C-2689-4B32-AB57-CFC64546135A</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4336,7 +4336,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>337453A3-CC63-4963-9A65-22AC19E80696</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4382,7 +4382,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5388E9DE-D167-4DD1-A2B0-AC241B999A64</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4428,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5388E9DE-D167-4DD1-A2B0-AC241B999A64</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4474,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6F8389A7-F82C-4B8E-A8C0-AA63A25A4956</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67F7A9ED-5B31-4F38-A3F3-9812B2463CFF</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4612,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>E189C599-DF0D-45A7-9DD4-CE32C1881370</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4658,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6F7C4C0D-4E51-4464-AD24-57ED67138B82</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4704,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139C9580-ADE3-426A-BA09-CF157D9F6477</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4750,7 +4750,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4796,7 +4796,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4842,7 +4842,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>C5A5B252-1E44-4A59-A9D2-399C4D7B68D0</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>C755562F-2B4E-4456-9B4D-874A748B662E</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4934,7 +4934,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-AB80-53D89E89D17B</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4980,7 +4980,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-AB80-53D89E89D17B</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5072,7 +5072,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>B2463CFF-E189-4C59-ADF0-D5A73DD4CE32</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5118,7 +5118,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>C1881370-6F7C-44C0-B4E5-14648D2457ED</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5210,7 +5210,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>4621DD68-C5A5-4BE2-BDB1-1726769EF669</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5256,7 +5256,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5352,7 +5352,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>BE209D39-FDA4-4777-A424-D116785C2FA5</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5398,7 +5398,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>74C2EE76-569B-4A79-A57E-DEDF91B022C9</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5494,7 +5494,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>FAA19BFE-9D55-4D04-A3C4-919CA1B2D121</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5881,7 +5881,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>B54EB2EB-03DD-4AA3-9927-18E2EDB11726</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5927,7 +5927,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769EF669-1A48-435A-A942-223ECE80B123</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5973,7 +5973,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6154,7 +6154,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6200,7 +6200,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886D20-B66C-457B-A591-19BF8E8F5C58</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -11399,7 +11399,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11416,6 +11416,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/aks_checklist.ko.xlsx
+++ b/spreadsheet/aks_checklist.ko.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>BC 및 DR</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>요구 사항</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>SLA, RTO(복구 시간 목표) 및 RPO(복구 지점 목표)와 같은 비기능적 요구 사항을 정의합니다.</t>
+          <t>카나리아 또는 블루/그린 배포 사용</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>BC 및 DR</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>정기적으로 DR 테스트 예약 및 수행</t>
+          <t>AKS Windows 워크로드에 필요한 경우 호스트 프로세스 컨테이너를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>BC 및 DR</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 전역 부하 분산 장치로 사용</t>
+          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BC 및 DR</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역에서 지원되는 경우 가용성 영역 사용</t>
+          <t>Dapr을 사용하여 마이크로 서비스 개발 용이</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
+          <t>https://dapr.io/</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578a219a-46be-4b54-9350-24922634292b</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,23 +1279,23 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BC 및 DR</t>
+          <t>응용 프로그램 배포</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>코드형 인프라</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SLA 지원 AKS 제품 사용</t>
+          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1330,18 +1330,18 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>포드 및 배포 정의에서 중단 예산 사용</t>
+          <t>정기적으로 DR 테스트 예약 및 수행</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1381,13 +1381,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>개인 레지스트리를 사용하는 경우 여러 지역에 이미지를 저장하도록 지역 복제를 구성합니다.</t>
+          <t>Azure 트래픽 관리자 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 전역 부하 분산 장치로 사용</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>서비스 주체 대신 관리 ID 사용</t>
+          <t>Azure 지역에서 지원되는 경우 가용성 영역 사용</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>578a219a-46be-4b54-9350-24922634292b</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,23 +1463,23 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>AAD와 인증 통합(관리되는 통합 사용)</t>
+          <t>SLA 지원 AKS 제품 사용</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>관리자 kubeconfig에 대한 액세스 제한 (자격 증명 가져 오기 --admin)</t>
+          <t>포드 및 배포 정의에서 중단 예산 사용</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,23 +1555,23 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>AAD RBAC와 권한 부여 통합</t>
+          <t>개인 레지스트리를 사용하는 경우 여러 지역에 이미지를 저장하도록 지역 복제를 구성합니다.</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>BC 및 DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>요구 사항</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>네임스페이스를 사용하여 쿠버네티스에서 RBAC 권한 제한</t>
+          <t>SLA, RTO(복구 시간 목표) 및 RPO(복구 지점 목표)와 같은 비기능적 요구 사항을 정의합니다.</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>POD ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
+          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용을 할당합니다.</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
+          <t>필요한 경우 노드 풀 스냅샷 크기 조정</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>AKS 로컬 계정 사용 안 함</t>
+          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 Just-In-Time 클러스터 액세스 구성</t>
+          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,17 +1831,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>비용 거버넌스</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>AKS에 대한 AAD 조건부 액세스가 필요한 경우 구성</t>
+          <t>개발/테스트 클러스터를 실행하는 경우 노드 풀 시작/중지 사용</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1858,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1877,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">윈도우 AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
+          <t>쿠버네티스용 Azure 정책을 사용하여 클러스터 규정 준수 보장</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1923,17 +1923,17 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>더 세밀하게 제어하려면 관리되는 Kubelet ID를 사용하는 것이 좋습니다.</t>
+          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -1950,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1969,23 +1969,23 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인을 선택합니다(Azure CNI 권장).</t>
+          <t>시스템 노드 풀에 taint를 추가하여 전용으로 만들기</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1996,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2014,23 +2014,23 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다.</t>
+          <t>이미지에 ACR과 같은 개인 레지스트리 사용</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2041,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2059,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
+          <t>이미지에서 취약성 검사</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2086,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2104,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>개인 IP 부하 분산 장치 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷 아님)을 사용합니다.</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 네트워크 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
-        </is>
-      </c>
+          <t>Azure 보안 센터를 사용하여 보안 상태 취약성 검색</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2153,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성 제한).</t>
+          <t>필요한 경우 FIPS 구성</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2180,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2198,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>보안 요구 사항에 따라 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
+          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2244,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다.</t>
+          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure 키 자격 증명 모음에 비밀 저장</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2271,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2290,23 +2286,23 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스로 노출하는 대신 웹 기반 앱을 노출합니다.</t>
+          <t>클러스터에 서비스 주체를 사용하는 경우 자격 증명을 주기적으로(예: 분기별) 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2336,23 +2332,23 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azue NAT 게이트웨이를 아웃바운드 유형으로 사용하여 송신 트래픽 크기 조정</t>
+          <t>필요한 경우 키 관리 서비스 etcd 암호화 추가</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2382,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
+          <t>필요한 경우 AKS에 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2428,17 +2424,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>권장사항</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요.</t>
+          <t>컨테이너용 Defender 사용 고려</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2455,7 +2451,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2474,23 +2470,23 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트(기본 설정) 또는 가상 네트워크 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
+          <t>서비스 주체 대신 관리 ID 사용</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2501,7 +2497,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2505,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2520,23 +2516,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>요구 사항에서 요구하는 경우 프라이빗 클러스터 사용</t>
+          <t>AAD와 인증 통합(관리되는 통합 사용)</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2543,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2551,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2562,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 옥양목 네트워크 정책을 사용할 수 있습니다. </t>
+          <t>관리자 kubeconfig에 대한 액세스 제한 (자격 증명 가져 오기 --admin)</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2589,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2597,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,23 +2608,23 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책 옵션 사용(Calico/Azure)</t>
+          <t>AAD RBAC와 권한 부여 통합</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2639,7 +2635,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2643,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,17 +2654,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
+          <t>네임스페이스를 사용하여 쿠버네티스에서 RBAC 권한 제한</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2685,7 +2681,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2689,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2700,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>웹 워크로드(UI 또는 API)에 WAF 사용</t>
+          <t>POD ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2727,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2735,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,17 +2746,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>AKS 가상 네트워크에서 DDoS 표준 사용</t>
+          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2777,7 +2773,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2781,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2792,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 회사 HTTP 프록시 추가</t>
+          <t>AKS 로컬 계정 사용 안 함</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2819,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2837,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>권장사항</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>AKS 애플리케이션 라우팅 추가 기능을 사용하지 마세요.</t>
+          <t>필요한 경우 Just-In-Time 클러스터 액세스 구성</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2864,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2872,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,23 +2883,23 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>권장사항</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Windows 워크로드의 경우 가속화된 네트워킹 사용</t>
+          <t>AKS에 대한 AAD 조건부 액세스가 필요한 경우 구성</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2914,7 +2910,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2918,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,23 +2929,23 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>권장사항</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>표준 ALB 사용(기본 ALB와 반대)</t>
+          <t xml:space="preserve">윈도우 AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2960,14 +2956,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,17 +2974,17 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다.</t>
+          <t>더 세밀하게 제어하려면 관리되는 Kubelet ID를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3005,14 +3001,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3028,12 +3024,12 @@
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시 사용 고려</t>
+          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3050,7 +3046,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3054,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3074,18 +3070,18 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 자신의 CNI 플러그인을 추가하십시오.</t>
+          <t>AKS 애플리케이션 라우팅 추가 기능을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3092,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3100,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3120,18 +3116,18 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
+          <t>Windows 워크로드의 경우 가속화된 네트워킹 사용</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3138,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3146,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3171,13 +3167,13 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드 풀에 대해 다른 서브넷을 사용하는 것이 좋습니다.</t>
+          <t>표준 ALB 사용(기본 ALB와 반대)</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3188,14 +3184,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3202,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure 키 자격 증명 모음에 비밀 저장</t>
+          <t>Azure CNI를 사용하는 경우 노드 풀에 대해 다른 서브넷을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3229,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3237,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3248,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>클러스터에 대한 사용자 서비스 주체인 경우 자격 증명을 주기적으로(예: 분기별) 새로 고칩니다.</t>
+          <t>프라이빗 엔드포인트(기본 설정) 또는 가상 네트워크 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3275,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,17 +3293,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>하</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>쿠버네티스용 Azure 정책을 사용하여 클러스터 규정 준수 보장</t>
+          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3324,14 +3320,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3338,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
+          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인을 선택합니다(Azure CNI 권장).</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3365,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3383,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>시스템 노드 풀에 taint를 추가하여 전용으로 만들기</t>
+          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3410,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3428,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>이미지에 ACR과 같은 개인 레지스트리 사용</t>
+          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3455,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,23 +3473,27 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>이미지에서 취약성 검사</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>개인 IP 부하 분산 장치 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷 아님)을 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 네트워크 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,23 +3522,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Azure 보안 센터를 사용하여 보안 상태 취약성 검색</t>
+          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성 제한).</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,17 +3567,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 FIPS 구성</t>
+          <t>필요한 경우 자신의 CNI 플러그인을 추가하십시오.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 키 관리 서비스 etcd 암호화 추가</t>
+          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,23 +3658,23 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS에 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
+          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스로 노출하는 대신 웹 기반 앱을 노출합니다.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>컨테이너용 Defender 사용 고려</t>
+          <t>Azue NAT 게이트웨이를 아웃바운드 유형으로 사용하여 송신 트래픽 크기 조정</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,23 +3750,23 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
+          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,23 +3795,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>kubecost와 같은 외부 응용 프로그램을 사용하여 다른 사용자에게 cust를 할당합니다.</t>
+          <t>보안 요구 사항에 따라 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 노드 풀 스냅샷 크기 조정</t>
+          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,23 +3887,23 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
+          <t>요구 사항에서 요구하는 경우 프라이빗 클러스터 사용</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,17 +3933,17 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
+          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 옥양목 네트워크 정책을 사용할 수 있습니다. </t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>개발/테스트 클러스터를 실행하는 경우 노드 풀 시작/중지 사용</t>
+          <t>쿠버네티스 네트워크 정책 옵션 사용(Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4025,17 +4025,17 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>임시 OS 디스크 사용</t>
+          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4071,17 +4071,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대용량 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 대해 높은 IOPS 및 더 큰 OS 디스크를 사용합니다.</t>
+          <t>웹 워크로드(UI 또는 API)에 WAF 사용</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4098,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4117,23 +4117,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>고성능 스토리지 옵션의 경우 AKS에서 울트라 디스크 사용</t>
+          <t>AKS 가상 네트워크에서 DDoS 표준 사용</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4144,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4163,23 +4163,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>클러스터에 상태를 유지하지 말고 외부에 데이터를 저장합니다 (AzStorage, AzSQL, Cosmos 등).</t>
+          <t>필요한 경우 회사 HTTP 프록시 추가</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4190,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4198,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4209,17 +4209,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles Premium 및/또는 ANF를 고려하십시오.</t>
+          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시 사용 고려</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4236,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4244,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4260,18 +4260,18 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>경고</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 볼륨 바인딩 모드:WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다.</t>
+          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 컨테이너 인사이트 참조)</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4282,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4290,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4428,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4444,12 +4444,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>컨테이너 인사이트(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 메트릭 모니터링</t>
+          <t>kubernetes 버전을 주기적으로(예: 분기별로) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4474,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>컨테이너 인사이트(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
+          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured 사용</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4512,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>경고</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 컨테이너 인사이트 참조)</t>
+          <t>클러스터 노드 이미지를 정기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있어야 합니다.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4558,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4587,13 +4587,13 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>kubernetes 버전을 주기적으로(예: 분기별로) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
+          <t>응용 프로그램 또는 클러스터 구성을 여러 클러스터에 배포하기 위해 gitops 고려</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4612,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4633,13 +4633,13 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured 사용</t>
+          <t>프라이빗 클러스터에서 AKS 명령 호출 사용을 고려하세요.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4650,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4658,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4679,13 +4679,13 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>클러스터 노드 이미지를 정기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있어야 합니다.</t>
+          <t>계획된 이벤트의 경우 노드 자동 드레이닝 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4696,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4704,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4725,13 +4725,13 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 또는 클러스터 구성을 여러 클러스터에 배포하기 위해 gitops 고려</t>
+          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경하지 않도록 자체 관리 관행을 개발합니다.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4742,7 +4742,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4750,7 +4750,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>프라이빗 클러스터에서 AKS 명령 호출 사용을 고려하세요.</t>
+          <t>사용자 지정 노드 RG(일명 '인프라 RG') 이름 사용</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4788,7 +4788,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4796,7 +4796,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4812,18 +4812,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
+          <t>YAML 매니페스트에서 더 이상 사용되지 않는 쿠버네티스 API를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4834,7 +4834,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4842,7 +4842,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
+          <t>윈도우 노드 오염</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4880,7 +4880,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>계획된 이벤트의 경우 노드 자동 드레이닝 사용을 고려하십시오.</t>
+          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4926,7 +4926,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4934,7 +4934,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4955,13 +4955,17 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경하지 않도록 자체 관리 관행을 개발합니다.</t>
-        </is>
-      </c>
-      <c r="D92" s="22" t="n"/>
+          <t>마스터 로그(API 로그라고도 함)를 Azure 모니터 또는 기본 설정 로그 관리 솔루션으로 보냅니다.</t>
+        </is>
+      </c>
+      <c r="D92" s="22" t="inlineStr">
+        <is>
+          <t>클러스터 수준에서 진단 설정을 통해</t>
+        </is>
+      </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4972,7 +4976,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -4980,7 +4984,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -4996,12 +5000,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>사용자 지정 노드 RG(일명 '인프라 RG') 이름 사용</t>
+          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5018,7 +5022,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5026,7 +5030,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5042,18 +5046,18 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>YAML 매니페스트에서 더 이상 사용되지 않는 쿠버네티스 API를 사용하지 마세요.</t>
+          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5064,7 +5068,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5072,7 +5076,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5088,18 +5092,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>윈도우 노드 오염</t>
+          <t>컨테이너 인사이트(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 메트릭 모니터링</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5110,7 +5114,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5118,7 +5122,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5134,18 +5138,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
+          <t>컨테이너 인사이트(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5156,7 +5160,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5164,7 +5168,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5414,22 +5418,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>마스터 로그(API 로그라고도 함)를 Azure 모니터 또는 기본 설정 로그 관리 솔루션으로 보냅니다.</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="inlineStr">
-        <is>
-          <t>클러스터 수준에서 진단 설정을 통해</t>
-        </is>
-      </c>
+          <t>포드 사양에서 요청 및 제한 구성</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5440,7 +5440,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5464,12 +5464,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>클러스터 자동 크기 조정기 사용</t>
+          <t>네임스페이스에 대한 리소스 할당량 적용</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5486,7 +5486,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5494,7 +5494,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5510,18 +5510,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
+          <t>구독에 노드 풀을 확장하기에 충분한 할당량이 있는지 확인</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5532,7 +5532,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 수평 포드 자동 크기 조정기 사용</t>
+          <t>클러스터 자동 크기 조정기 사용</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5607,17 +5607,13 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려하십시오.</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="inlineStr">
-        <is>
-          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
-        </is>
-      </c>
+          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5628,7 +5624,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5636,7 +5632,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5657,17 +5653,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>확장성에 필요한 경우 5000개 이상의 노드를 추가하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="inlineStr">
-        <is>
-          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
-        </is>
-      </c>
+          <t>필요한 경우 수평 포드 자동 크기 조정기 사용</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5678,7 +5670,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5686,7 +5678,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5707,7 +5699,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>AKS 자동화를 위한 이벤트 그리드 이벤트를 구독하는 것이 좋습니다.</t>
+          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려하십시오.</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
@@ -5717,7 +5709,7 @@
       </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5728,7 +5720,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5757,14 +5749,10 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="inlineStr">
-        <is>
-          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
-        </is>
-      </c>
+          <t>확장성에 필요한 경우 5000개 이상의 노드를 추가하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -5778,7 +5766,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5807,14 +5795,10 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 노드에 대한 Azure 전용 호스트를 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="inlineStr">
-        <is>
-          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
-        </is>
-      </c>
+          <t>AKS 자동화를 위한 이벤트 그리드 이벤트를 구독하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -5828,7 +5812,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,18 +5836,18 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>포드 사양에서 요청 및 제한 구성</t>
+          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5874,14 +5858,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5897,18 +5881,18 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>네임스페이스에 대한 리소스 할당량 적용</t>
+          <t>필요한 경우 AKS 노드에 대한 Azure 전용 호스트를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5919,7 +5903,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5927,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5943,12 +5927,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>구독에 노드 풀을 확장하기에 충분한 할당량이 있는지 확인</t>
+          <t>임시 OS 디스크 사용</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5965,7 +5949,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5973,7 +5957,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -5984,23 +5968,23 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>코드형 인프라</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기</t>
+          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 엄청난 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 대해 높은 IOPS 및 더 큰 OS 디스크를 사용합니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6011,7 +5995,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6019,7 +6003,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6030,23 +6014,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>카나리아 또는 블루/그린 배포 사용</t>
+          <t>고성능 스토리지 옵션의 경우 AKS에서 울트라 디스크 사용</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6057,14 +6041,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6075,23 +6059,23 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>AKS Windows 워크로드에 필요한 경우 호스트 프로세스 컨테이너를 사용할 수 있습니다.</t>
+          <t>클러스터에 상태를 유지하지 말고 외부에 데이터를 저장합니다 (AzStorage, AzSQL, Cosmos 등).</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6102,14 +6086,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6120,23 +6104,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용</t>
+          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles Premium 및/또는 ANF를 고려하십시오.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6147,14 +6131,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6165,23 +6149,23 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Dapr을 사용하여 마이크로 서비스 개발 용이</t>
+          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 볼륨 바인딩 모드:WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6192,7 +6176,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6200,7 +6184,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11259,7 +11243,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11343,7 +11327,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11400,43 +11384,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/aks_checklist.ko.xlsx
+++ b/spreadsheet/aks_checklist.ko.xlsx
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>

--- a/spreadsheet/aks_checklist.ko.xlsx
+++ b/spreadsheet/aks_checklist.ko.xlsx
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경하지 않도록 자체 관리 관행을 개발합니다.</t>
+          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경하지 않도록 자체 거버넌스 사례를 개발합니다.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
